--- a/Pandora开发板引脚配置.xlsx
+++ b/Pandora开发板引脚配置.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\zephyrproject\application\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B24AFAC-C6EA-494C-9200-EA081DAA41FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{5DF46533-A35F-4D0C-80FB-4391D7BC311C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20640" yWindow="0" windowWidth="20640" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="已恢复_Sheet1" sheetId="1" r:id="rId1"/>
@@ -622,17 +622,17 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" customWidth="1"/>
+    <col min="1" max="1" width="28.77734375" customWidth="1"/>
     <col min="2" max="2" width="16.44140625" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="13.88671875" customWidth="1"/>
     <col min="5" max="6" width="15.109375" customWidth="1"/>
-    <col min="7" max="7" width="22.6640625" customWidth="1"/>
+    <col min="7" max="7" width="27.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
